--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3361722.214636982</v>
+        <v>3354705.199745271</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>259.5137794056234</v>
       </c>
       <c r="H2" t="n">
-        <v>70.36094868101115</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>70.18226380646142</v>
       </c>
       <c r="G4" t="n">
-        <v>136.1916198885554</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>165.9817807474606</v>
+        <v>134.136870389147</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>130.7621952949253</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>53.80100608808075</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>240.7291195778427</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>81.63302162935814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>48.03644161695811</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>231.7162636587396</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>91.87861758986189</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,13 +1666,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.87067635993174</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527405</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>36.74571320013143</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>89.06472496713432</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>76.31783716350172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>256.3974098248911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.33961259308131</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3.416105766199016</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>97.12772045570753</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.3287574768411</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>113.4617930109232</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>81.21003188889082</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>40.17590628747438</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.1677741775054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.977907210731</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.977907210731</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>935.7122086039801</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>549.9239560057358</v>
+        <v>880.5299933276333</v>
       </c>
       <c r="F2" t="n">
-        <v>138.9380512161283</v>
+        <v>469.5440885380257</v>
       </c>
       <c r="G2" t="n">
-        <v>125.0146471547192</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.577747274852</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>338.4002221349974</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>338.4002221349974</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>338.4002221349974</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>191.5102746370871</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>709.2075429298498</v>
+        <v>1077.074462393506</v>
       </c>
       <c r="C5" t="n">
-        <v>709.2075429298498</v>
+        <v>708.1119454530944</v>
       </c>
       <c r="D5" t="n">
-        <v>709.2075429298498</v>
+        <v>349.8462468463439</v>
       </c>
       <c r="E5" t="n">
-        <v>709.2075429298498</v>
+        <v>349.8462468463439</v>
       </c>
       <c r="F5" t="n">
-        <v>702.2620421806463</v>
+        <v>342.9007460971405</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969783</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.807382993971</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.2874324143854</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>108.2874324143854</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="D7" t="n">
-        <v>108.2874324143854</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E7" t="n">
-        <v>108.2874324143854</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>108.2874324143854</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.2874324143854</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>837.1179892781315</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781315</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1227.257321253943</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>837.1179892781315</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628421</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628421</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628421</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5032,61 +5032,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147083</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211725</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1113.485206214222</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.347833878255</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9798268587604</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C13" t="n">
-        <v>527.0436439308535</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="X13" t="n">
-        <v>916.7724060022905</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.9798268587604</v>
+        <v>509.2863307027308</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766205</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.095276920733</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2187.63534213943</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6052175444368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6052175444368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.921157035281</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>898.50398699832</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>670.5144361003026</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>282.2470670630138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>282.2470670630138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>282.2470670630138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>134.3339734806207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3339734806207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>134.3339734806207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347409</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141522</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045613</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065439</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.2470670630138</v>
+        <v>226.2249729967965</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619849</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4036.895039969637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4036.895039969637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3886.778400557302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4770.890204360623</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4547.104789150128</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4547.104789150128</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4547.104789150128</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4257.687619113168</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4257.687619113168</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4036.895039969637</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
@@ -6010,25 +6010,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3778.208216256919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.272033329012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491672</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281178</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494736</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494736</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.945405494736</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>3959.856681087159</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>3959.856681087159</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6250,22 +6250,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590536</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>696.115860914169</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>468.1263100161517</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3890.044176674691</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4437.14914771935</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>4437.14914771935</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4209.159596821333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3988.367017677803</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,7 +6688,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6706,22 +6706,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>530.7956248556239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>530.7956248556239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.921157035281</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V34" t="n">
-        <v>933.2366688293938</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W34" t="n">
-        <v>933.2366688293938</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>933.2366688293938</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>712.4440896858637</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.439203208486</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>854.5030202805789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>704.3863808682431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>556.47328728585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>409.5833397879396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352016</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>1244.231782352016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.439203208486</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7195,28 +7195,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>181.9314425141214</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586342</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>729.1316371486756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>560.1954542207687</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U40" t="n">
-        <v>1273.233295391523</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V40" t="n">
-        <v>1018.548807185636</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W40" t="n">
-        <v>729.1316371486756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>729.1316371486756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>729.1316371486756</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>399.4500457733755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227924</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169056</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>620.2426249169056</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>620.2426249169056</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>399.4500457733755</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3409.006809316317</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247865</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>709.4512536188996</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>420.034083581939</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>420.034083581939</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>148.2747143566546</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>145.2351313103791</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>145.2351313103787</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907245</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>28.12263706262945</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>306.1147370139952</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>43.65987261462419</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>199.6230805871087</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>360.5026862907238</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>54.52108873983772</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>133.8310377991752</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>111.5503716629995</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>52.11417746079172</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>112.1681151674047</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>108.8560850164689</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>149.3918182255354</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>30.1255885116999</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.49236758885598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1993672520133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>189.3952778808835</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>6.164810986536509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>172.7755593876541</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>170.9276114349372</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>127.0709148111535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.41687917458944</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="I2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>664749.401554105</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541048</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143897</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15045.66962143906</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="L4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.66962143909</v>
@@ -26459,7 +26459,7 @@
         <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-131716.4111445357</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.4680700091</v>
+        <v>458251.468070009</v>
       </c>
       <c r="D6" t="n">
         <v>458251.4680700089</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705263</v>
+        <v>31581.77824733148</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.4059839494</v>
+        <v>556741.8147242272</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913567</v>
+        <v>380318.5955316345</v>
       </c>
       <c r="K6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="L6" t="n">
-        <v>557716.4059839488</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="M6" t="n">
-        <v>422915.390750112</v>
+        <v>421940.7994903903</v>
       </c>
       <c r="N6" t="n">
-        <v>557716.4059839487</v>
+        <v>556741.8147242275</v>
       </c>
       <c r="O6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="P6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242274</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>154.2703906151716</v>
       </c>
       <c r="H2" t="n">
-        <v>253.561824083346</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>75.23878421646982</v>
       </c>
       <c r="G4" t="n">
-        <v>31.11818237049553</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>247.8023892733344</v>
+        <v>279.647299631648</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>36.4846258037025</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>91.62004193485049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.49504793044656</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>288.0980790491109</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>238.4865567196329</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,25 +28092,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.735792199630443e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28575,16 +28575,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.762168557157548e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>458.699091407121</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>352.3285462419038</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>455.6595083608451</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>609.7603912467489</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504664</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>338.5470141130958</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37396,16 +37396,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.5700515695309</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
@@ -37870,13 +37870,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>406.7164955186335</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>642.8663885318321</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3354705.199745271</v>
+        <v>3359644.462594304</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>259.5137794056234</v>
+        <v>331.258340316955</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>134.136870389147</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>78.32009281966593</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.7621952949253</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>130.8251764553487</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.2507170030314</v>
       </c>
       <c r="U8" t="n">
-        <v>240.7291195778427</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053131</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>30.60408762095457</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>231.7162636587396</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>26.12759070766455</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.2882957363103</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002181</v>
+        <v>144.0409689064678</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>97.12772045570753</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>81.21003188889082</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925878</v>
+        <v>934.7470953312629</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276333</v>
+        <v>548.9588427330186</v>
       </c>
       <c r="F2" t="n">
-        <v>469.5440885380257</v>
+        <v>542.0133419838152</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,7 +4327,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4485,10 +4485,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1077.074462393506</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C5" t="n">
-        <v>708.1119454530944</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>349.8462468463439</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E5" t="n">
-        <v>349.8462468463439</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9007460971405</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,13 +4564,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2618.037886149873</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2399.403219121936</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2399.403219121936</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2068.340331778365</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>1715.571676508251</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y5" t="n">
-        <v>1463.674302457628</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C7" t="n">
-        <v>566.6290395096265</v>
+        <v>529.7758821321496</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>379.6592427198138</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>231.7461491374207</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>231.7461491374207</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="8">
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,19 +4822,19 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="U8" t="n">
         <v>2277.810876486087</v>
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>529.7758821321497</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>379.659242719814</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>231.7461491374208</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,46 +5026,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.2863307027308</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>509.2863307027308</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>730.0789098462609</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>730.0789098462609</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>730.0789098462609</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>730.0789098462609</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y13" t="n">
-        <v>509.2863307027308</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>371.7442270155261</v>
       </c>
     </row>
     <row r="17">
@@ -5597,22 +5597,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,10 +6071,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
         <v>1247.466478653857</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201021</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6217,13 +6217,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6241,34 +6241,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,31 +6876,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488389</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>644.108030042952</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6928,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6952,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488389</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7578,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.52108873983772</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.4570626444302</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.54368444562702</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518767</v>
+        <v>74.54368444562704</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.96659166315956</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338523</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>189.3952778808835</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>170.9276114349372</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="11">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
-      </c>
       <c r="E2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.401554105</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541046</v>
@@ -26343,10 +26343,10 @@
         <v>664749.4015541046</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541049</v>
@@ -26355,7 +26355,7 @@
         <v>664749.401554105</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26441,22 +26441,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26472,31 +26472,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445357</v>
+        <v>-131716.4111445356</v>
       </c>
       <c r="C6" t="n">
+        <v>458251.4680700091</v>
+      </c>
+      <c r="D6" t="n">
         <v>458251.468070009</v>
       </c>
-      <c r="D6" t="n">
-        <v>458251.4680700089</v>
-      </c>
       <c r="E6" t="n">
-        <v>31581.77824733148</v>
+        <v>32458.9103810814</v>
       </c>
       <c r="F6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="G6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="H6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.9468579766</v>
       </c>
       <c r="I6" t="n">
-        <v>556741.8147242272</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="J6" t="n">
-        <v>380318.5955316345</v>
+        <v>381195.727665384</v>
       </c>
       <c r="K6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="L6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.946857977</v>
       </c>
       <c r="M6" t="n">
-        <v>421940.7994903903</v>
+        <v>422817.9316241396</v>
       </c>
       <c r="N6" t="n">
-        <v>556741.8147242275</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="O6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.9468579772</v>
       </c>
       <c r="P6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.9468579768</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,28 +26755,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>154.2703906151716</v>
+        <v>82.52582970384003</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>279.647299631648</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>96.09561998930558</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4846258037025</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>36.48462580370219</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>30.19760335462638</v>
       </c>
       <c r="U8" t="n">
-        <v>10.49504793044656</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380965</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>136.7057146380963</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.119788366582661e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35983,7 +35983,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349766</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
